--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIR01\Documents\dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36C5AE-FB72-41EB-835B-7512BA7DE546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A74696-4507-4C3D-A19F-5C5EDAB162ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>nombre</t>
   </si>
@@ -49,8 +49,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -384,7 +393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -392,7 +401,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIR01\Documents\dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A74696-4507-4C3D-A19F-5C5EDAB162ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D16E2-07C8-427E-85E7-CD33F9656F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>nombre</t>
   </si>
@@ -49,16 +49,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +363,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +375,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -392,6 +395,18 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -400,6 +415,18 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -408,6 +435,18 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -416,6 +455,18 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -424,6 +475,18 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -432,6 +495,18 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -440,6 +515,18 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -448,7 +535,18 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIR01\Documents\dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D16E2-07C8-427E-85E7-CD33F9656F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9C841-2754-49CA-AF03-F004BA50218A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="6">
   <si>
     <t>nombre</t>
   </si>
@@ -360,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K1" sqref="K1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +387,26 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -407,8 +425,26 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -427,8 +463,26 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -447,8 +501,26 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -467,8 +539,26 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -487,8 +577,26 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -507,8 +615,26 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -527,8 +653,26 @@
       <c r="F8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -545,6 +689,24 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
         <v>5</v>
       </c>
     </row>
